--- a/utils/cleaners/bot/eliminados/Eliminados_plan.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_plan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,16 +547,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20/05</t>
+          <t>10/05</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2022</v>
+        <v>125</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -626,15 +626,116 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t xml:space="preserve">En el plan de área contempla proyectos de robótica y para 6° el uso de la micro:bit para desarrollo de dichos proyectos, pero no se especifica ni se tiene en cuenta los procesos de pensamiento computacional, el plan de área es coherente en la transición de un grado a otro pero no permite al estudiante desarrollar conocimientos, habilidades y comprensión del pensamiento computacional ya que se cetra en el desarrollo de otras actividades.  </t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Tenemos como Misión brindar a la comunidad una educación comprometida en la
+formación intelectual y moral de nuestros educandos, con el propósito de generar
+en ellos una actitud crítica con responsabilidad social.</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Visionamos a nuestra Institución Educativa José de la Vega al año 2020 como
+líderes en la formación intelectual, tecnológica y la convivencia social,
+impulsadora de una significativa conciencia ecológica y emprendedora de sus
+educandos a fin de que se convierta en seres transformadores de su comunidad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>218</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20/05</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>El plan de estudio obedece a los lineamientos dados por el ministerio, al igual que todos los planes de las diferentes instituciones, sin embargo constantemente está en revisión y retroalimentación, teniendo en cuenta las necesidades de la institución y siendo conseuentes con la misión, visión y mega institucional.</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>En la institución, todos los planes de área van ligados al pensamiento computacional, cultural y digital en la  formación del alumno de primaria, secundaria, sabatinos y  modelos flexibles.</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t xml:space="preserve">Somos una institución educativa de carácter público que ofrece formación integral
 a niños, niñas, jóvenes y personas adultas, en los niveles de preescolar, básica, media
@@ -644,7 +745,7 @@
 sociedad con responsabilidad social. </t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>En el año 2027 La Institución Educativa La Independencia se destacará entre las
 instituciones educativas de carácter oficial del municipio de Medellín, por el

--- a/utils/cleaners/bot/eliminados/Eliminados_plan.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_plan.xlsx
@@ -1025,21 +1025,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14/05</t>
+          <t>19/05</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1084,17 +1084,17 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1104,38 +1104,39 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>La necesidad especial más trabajada en la IE, son los sordos, y para ello en cada salón hay una persona experta en el lenguaje de señas, este colegio es focalicalizado para distintos tipos de necesidades, ya sean en el aprendizaje o físicas o psicologicas; sin mebargo la estructura física de la IE no es la adecuada, no tienen sala de sistemas y por ende no hay computadores.</t>
+          <t>En el plan de estudio se menciona que en grados 6°, 7° y 8° se involucran saberes fundamentales como  la animación en Scratch, razonamiento lógico, ya en noveno  se abordan temas como algoritmos, diagramas de flujo en lenguaje natural, seudocódigos, programación básica en Pseint, en décimo se habla sobre conceptualización de los lenguajes de programación y algunos tipos, también de elementos básicos del lenguaje de programación  y visual  Basic desde el desarrollador de Power Pointy en once se habla sobre los juegos virtuales como herramientas didácticas para la  práctica pedagógica
+y la programación de una actividad didáctica en Visual Basic.</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>La misión de la Institución Educativa Ricaurte es la formación de personas líderes, fundamentada en componentes científicos, tecnológicos, morales, sociales, principios y valores que les permite a los estudiantes mejorar su calidad de vida y proyectar su futuro laboral o profesional, a través del aprendizaje significativo basado en las Tecnologías de la información y el Bilingüismo.</t>
+          <t>Formar maestros con idoneidad pedagógica, académica e investigativa para el ejercicio de la docencia en el nivel de preescolar y en el ciclo de educación básica primaria, que respondan a las necesidades de inclusión, modernización y globalización, mediante la reflexión dialogada sobre las prácticas pedagógicas.</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>La Institución Educativa Ricaurte se proyecta en el 2025,  para ser reconocida en el ámbito local y nacional por brindar un servicio educativo de alta calidad, líderes en el desarrollo de estrategias que fortalezcan: el manejo de las TIC, el cuidado del medio ambiente, el desarrollo de habilidades en el manejo del idioma extranjero inglés, la inclusión de estudiantes con discapacidad auditiva y la convivencia pacífica, mediante un sistema de gestión de calidad, con el apoyo de toda la comunidad.</t>
+          <t>En el año 2015, la Escuela Normal Superior de Ibagué será una institución líder a nivel regional y nacional, con proyección internacional en el campo de la formación docente, gracias al fortalecimiento de la investigación pedagógica como eje dinamizador de la academia.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19/05</t>
+          <t>20/05</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>2022</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1145,7 +1146,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1155,7 +1156,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1170,142 +1171,45 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>En el plan de estudio se menciona que en grados 6°, 7° y 8° se involucran saberes fundamentales como  la animación en Scratch, razonamiento lógico, ya en noveno  se abordan temas como algoritmos, diagramas de flujo en lenguaje natural, seudocódigos, programación básica en Pseint, en décimo se habla sobre conceptualización de los lenguajes de programación y algunos tipos, también de elementos básicos del lenguaje de programación  y visual  Basic desde el desarrollador de Power Pointy en once se habla sobre los juegos virtuales como herramientas didácticas para la  práctica pedagógica
-y la programación de una actividad didáctica en Visual Basic.</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
+          <t>El plan de estudio obedece a los lineamientos dados por el ministerio, al igual que todos los planes de las diferentes instituciones, sin embargo constantemente está en revisión y retroalimentación, teniendo en cuenta las necesidades de la institución y siendo conseuentes con la misión, visión y mega institucional.</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>En la institución, todos los planes de área van ligados al pensamiento computacional, cultural y digital en la  formación del alumno de primaria, secundaria, sabatinos y  modelos flexibles.</t>
+        </is>
+      </c>
       <c r="U8" t="inlineStr">
-        <is>
-          <t>Formar maestros con idoneidad pedagógica, académica e investigativa para el ejercicio de la docencia en el nivel de preescolar y en el ciclo de educación básica primaria, que respondan a las necesidades de inclusión, modernización y globalización, mediante la reflexión dialogada sobre las prácticas pedagógicas.</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>En el año 2015, la Escuela Normal Superior de Ibagué será una institución líder a nivel regional y nacional, con proyección internacional en el campo de la formación docente, gracias al fortalecimiento de la investigación pedagógica como eje dinamizador de la academia.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>218</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20/05</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>El plan de estudio obedece a los lineamientos dados por el ministerio, al igual que todos los planes de las diferentes instituciones, sin embargo constantemente está en revisión y retroalimentación, teniendo en cuenta las necesidades de la institución y siendo conseuentes con la misión, visión y mega institucional.</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>En la institución, todos los planes de área van ligados al pensamiento computacional, cultural y digital en la  formación del alumno de primaria, secundaria, sabatinos y  modelos flexibles.</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
         <is>
           <t xml:space="preserve">Somos una institución educativa de carácter público que ofrece formación integral
 a niños, niñas, jóvenes y personas adultas, en los niveles de preescolar, básica, media
@@ -1315,7 +1219,7 @@
 sociedad con responsabilidad social. </t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>En el año 2027 La Institución Educativa La Independencia se destacará entre las
 instituciones educativas de carácter oficial del municipio de Medellín, por el
@@ -1328,6 +1232,102 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>221</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23/05</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>33</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>En el plan de estudio y los acuerdos pedagógicos con bachillerato (6° a 11°), se incluye ofimática, alfabetización digital y programación a través de la exploración de herramientas como code.org y makecode, trabajando con cada grado actividades especificas y acordes a su edad, sin embargo,  no se menciona, profundiza en conceptualización, comprensión, relevancia, habilidades y sub habilidades del PC.</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Somos una Institución educativa al servicio de la niñez y juventud en los niveles de preescolar, básica y media con una filosofía humanizante y evangelizadora centrada en los valores que imparte una formación espiritual y académica mediante un enfoque problémico para el desarrollo de su autonomía cognitiva y social, con proyección investigativa, humanística, artística, cultural y de liderazgo. </t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>El Colegio Santa Teresa de Jesús será reconocido a nivel municipal, departamental,  nacional e internacional,   por la integralidad de la propuesta educativa centrada en la formación del ser, el impacto que genera su formación en valores humano-cristianos,  los resultados académicos,   el desarrollo de un currículo  con  enfoque  problémico, el compromiso en la  formación integral de mujeres líderes capaces de comprometerse profesional y vocacionalmente  con sólidos principios ético-cristianos y sensibilidad humana y social.</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="n">
         <v>262</v>
